--- a/Clase 5/test.xlsx
+++ b/Clase 5/test.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,7 +384,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>console_x</t>
+          <t>console</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -395,85 +395,6 @@
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>publisher_y</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>console_y</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Saints Row</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>THQ</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>X360</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Sandbox</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>THQ</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Series</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Saints Row</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>THQ</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>XBL</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Sandbox</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>THQ</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Series</t>
         </is>
       </c>
     </row>
